--- a/data/data_koae/excel/KOAE_2003.xlsx
+++ b/data/data_koae/excel/KOAE_2003.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruce\Desktop\KilaueaKoaProject\data_koae\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruce\Desktop\KilaueaKoaeProject\KilaueaKoaeProject\data\data_koae\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ex" sheetId="1" r:id="rId1"/>
@@ -251,454 +251,454 @@
     <t>from raw data</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469242.8227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518481.1106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2099557.4902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -5469283.5310</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518480.8937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2099460.9601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -5469324.1059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518495.1392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2099346.9334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -5469345.4382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518520.3414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2099255.0023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -5469211.3057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518467.0366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2099657.2061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -5469178.3933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518470.0221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2099754.8274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -5469170.2290</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518420.1834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2099831.9773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -5469158.3598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518378.5937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2099928.3015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -5469158.3054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518324.4625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2100028.8360</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -5469128.9593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518299.3325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2100135.3158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -5469115.7439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518271.8461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2100234.1337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -5469116.8045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518210.0477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2100318.7371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -5469110.4735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518159.8122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2100404.7465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -5469109.6456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518145.5206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2100420.2432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -5469127.1724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518101.2463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2100423.4818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -5469096.2710</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518107.9349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2100494.3389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -5469082.5115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518111.2415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2100514.2575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -5469068.7721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518069.8480</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2100602.8930</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -5469048.7627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518034.4441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2100707.2857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -5469048.9541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517966.8910</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2100793.0769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -5469031.9557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517935.0787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2100879.5759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -5469070.6905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518100.0096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2100551.2695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -5469030.1474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517883.5716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2100974.2516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -5469021.7882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517837.1333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2101073.5576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -5468998.0409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517810.8881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2101172.6025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -5468987.8995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517793.0103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2101225.9408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -5468971.6190</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517765.3551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2101282.0027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -5468955.8601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517712.7584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2101353.9513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -5468931.9988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517684.9891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2101458.2512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -5468913.2827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517646.5444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2101558.3927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -5468913.6032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517604.5755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2101613.9661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -5468888.6962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517621.1111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2101676.9870</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -5468890.9863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517581.5719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2101734.5113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -5468867.8253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517570.3593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2101806.6065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -5468852.0871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517501.7076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2101910.7961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -5468829.3977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517470.7753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2102010.6940</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -5468818.9138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517421.5061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2102102.9429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -5468799.0182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517391.0602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2102205.5298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -5468800.5121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517325.3773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2102282.2737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -5468768.9769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517327.0429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2102369.1657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -5468780.6939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517254.6000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2102424.8455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -5468761.8890</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517216.1279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2102522.6919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -5468740.9548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517174.0056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2102626.9243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -5468742.3888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517123.4368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2102684.3293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -5468636.4200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517277.1336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2102790.2874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -5468608.6905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517222.4573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2102933.8639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -5469870.3985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518175.1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2098124.4190</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -5469912.4841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518147.8547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2098032.9335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -5469993.2538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518185.4055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2097751.6800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -5470014.5973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518193.4598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2097673.9182</t>
+    <t xml:space="preserve">  -5469242.8888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518480.7853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2099557.7032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469283.5732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518480.6860</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2099461.0961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469324.1481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518494.9315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2099347.0695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469345.4774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518520.1485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2099255.1286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469211.3717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518466.7114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2099657.4190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469178.4593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518469.6969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2099755.0403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469170.3016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518419.8259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2099832.2113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469158.4258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518378.2686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2099928.5144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469158.3605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518324.1913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2100029.0136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469129.0041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518299.1117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2100135.4604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469115.8053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518271.5435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2100234.3318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469116.8659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518209.7451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2100318.9352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469110.5279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518159.5440</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2100404.9221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469109.6974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518145.2654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2100420.4104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469127.2132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518101.0451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2100423.6136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469096.3159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518107.7135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2100494.4840</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469082.5748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518110.9295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2100514.4618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469068.8096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518069.6634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2100603.0138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469048.8146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518034.1886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2100707.4530</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469049.0199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517966.5665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2100793.2894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469032.0215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517934.7542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2100879.7884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469070.7398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518099.7669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2100551.4285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469030.2132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517883.2471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2100974.4641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469021.8463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517836.8467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2101073.7452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5468998.0926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517810.6331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2101172.7695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5468987.9718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517792.6539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2101226.1742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5468971.6848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517765.0307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2101282.2151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5468955.9156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517712.4846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2101354.1306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5468932.0505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517684.7341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2101458.4182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5468913.3497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517646.2138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2101558.6092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5468913.6613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517604.2888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2101614.1538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5468888.7623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517620.7854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2101677.2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5468891.0444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517581.2853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2101734.6989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5468867.8745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517570.1169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2101806.7652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5468852.1452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517501.4210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2101910.9837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5468829.4635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517470.4509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2102010.9064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5468818.9563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517421.2965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2102103.0801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5468799.0607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517390.8506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2102205.6670</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5468800.5702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517325.0908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2102282.4613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5468769.0350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517326.7565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2102369.3532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5468780.7519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517254.3136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2102425.0330</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5468761.9470</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517215.8416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2102522.8794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5468741.0358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517173.6056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2102627.1862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5468742.4472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517123.1485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2102684.5181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5468636.4784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517276.8453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2102790.4762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5468608.7366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517222.2296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2102934.0130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469870.4514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518174.8400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2098124.5892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469912.5283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518147.6375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2098033.0757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469993.2980</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518185.1884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2097751.8222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5470014.6118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518193.3886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2097673.9648</t>
   </si>
   <si>
     <t>NaN</t>
@@ -1155,7 +1155,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:G52"/>
     </sheetView>
   </sheetViews>
@@ -2375,8 +2375,9 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="1.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="13.90625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.7265625" bestFit="1" customWidth="1"/>
   </cols>
@@ -2404,19 +2405,19 @@
         <v>75</v>
       </c>
       <c r="H1">
-        <v>19.3431831766835</v>
+        <v>19.343185219406301</v>
       </c>
       <c r="I1">
-        <v>-155.274838929228</v>
+        <v>-155.27484200396199</v>
       </c>
       <c r="J1">
-        <v>985.96849352587003</v>
+        <v>985.96731422468997</v>
       </c>
       <c r="K1">
-        <v>261019.215751474</v>
+        <v>261018.89558105299</v>
       </c>
       <c r="L1">
-        <v>2140372.5956056202</v>
+        <v>2140372.8260288001</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
@@ -2442,19 +2443,19 @@
         <v>78</v>
       </c>
       <c r="H2">
-        <v>19.342250150059801</v>
+        <v>19.342251454339799</v>
       </c>
       <c r="I2">
-        <v>-155.275002824214</v>
+        <v>-155.27500478736701</v>
       </c>
       <c r="J2">
-        <v>988.79960697889305</v>
+        <v>988.79884947463904</v>
       </c>
       <c r="K2">
-        <v>261000.63148781701</v>
+        <v>261000.42706469601</v>
       </c>
       <c r="L2">
-        <v>2140269.51708283</v>
+        <v>2140269.6642081998</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -2480,19 +2481,19 @@
         <v>81</v>
       </c>
       <c r="H3">
-        <v>19.341150275125202</v>
+        <v>19.341151580256501</v>
       </c>
       <c r="I3">
-        <v>-155.27504118531201</v>
+        <v>-155.275043148451</v>
       </c>
       <c r="J3">
-        <v>991.43103336263505</v>
+        <v>991.43030633684305</v>
       </c>
       <c r="K3">
-        <v>260994.99744897999</v>
+        <v>260994.793027067</v>
       </c>
       <c r="L3">
-        <v>2140147.7914398601</v>
+        <v>2140147.9386593699</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -2518,19 +2519,19 @@
         <v>84</v>
       </c>
       <c r="H4">
-        <v>19.340277288332999</v>
+        <v>19.340278499578702</v>
       </c>
       <c r="I4">
-        <v>-155.27490826128999</v>
+        <v>-155.27491008455999</v>
       </c>
       <c r="J4">
-        <v>989.21429018303797</v>
+        <v>989.21358475182205</v>
       </c>
       <c r="K4">
-        <v>261007.695898684</v>
+        <v>261007.506038828</v>
       </c>
       <c r="L4">
-        <v>2140050.9501204798</v>
+        <v>2140051.0867512398</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -2556,19 +2557,19 @@
         <v>87</v>
       </c>
       <c r="H5">
-        <v>19.344136260093901</v>
+        <v>19.344138302110899</v>
       </c>
       <c r="I5">
-        <v>-155.27483513505501</v>
+        <v>-155.27483820854499</v>
       </c>
       <c r="J5">
-        <v>986.43177148699795</v>
+        <v>986.43051656708099</v>
       </c>
       <c r="K5">
-        <v>261021.00302980401</v>
+        <v>261020.68299119099</v>
       </c>
       <c r="L5">
-        <v>2140478.1162292501</v>
+        <v>2140478.34657276</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -2594,19 +2595,19 @@
         <v>90</v>
       </c>
       <c r="H6">
-        <v>19.345053935293102</v>
+        <v>19.345055977310999</v>
       </c>
       <c r="I6">
-        <v>-155.27467833578299</v>
+        <v>-155.27468140928499</v>
       </c>
       <c r="J6">
-        <v>991.73960972577299</v>
+        <v>991.73835759423696</v>
       </c>
       <c r="K6">
-        <v>261038.819023716</v>
+        <v>261038.49898554501</v>
       </c>
       <c r="L6">
-        <v>2140579.5048536598</v>
+        <v>2140579.7351971702</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
@@ -2632,19 +2633,19 @@
         <v>93</v>
       </c>
       <c r="H7">
-        <v>19.3457959939444</v>
+        <v>19.345798238262599</v>
       </c>
       <c r="I7">
-        <v>-155.275076615545</v>
+        <v>-155.275079994517</v>
       </c>
       <c r="J7">
-        <v>990.63053355552302</v>
+        <v>990.62918564118399</v>
       </c>
       <c r="K7">
-        <v>260998.04265604299</v>
+        <v>260997.690811115</v>
       </c>
       <c r="L7">
-        <v>2140662.2167978501</v>
+        <v>2140662.4699635999</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
@@ -2670,19 +2671,19 @@
         <v>96</v>
       </c>
       <c r="H8">
-        <v>19.3467012064832</v>
+        <v>19.346703248362601</v>
       </c>
       <c r="I8">
-        <v>-155.27538885337401</v>
+        <v>-155.275391926049</v>
       </c>
       <c r="J8">
-        <v>995.95503562409397</v>
+        <v>995.95383323635895</v>
       </c>
       <c r="K8">
-        <v>260966.547081414</v>
+        <v>260966.22713421099</v>
       </c>
       <c r="L8">
-        <v>2140762.8743384001</v>
+        <v>2140763.1046671802</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
@@ -2708,19 +2709,19 @@
         <v>99</v>
       </c>
       <c r="H9">
-        <v>19.347625880915501</v>
+        <v>19.347627584117099</v>
       </c>
       <c r="I9">
-        <v>-155.27585652000599</v>
+        <v>-155.27585908343099</v>
       </c>
       <c r="J9">
-        <v>1007.85258340463</v>
+        <v>1007.8516211547</v>
       </c>
       <c r="K9">
-        <v>260918.74557596899</v>
+        <v>260918.478657028</v>
       </c>
       <c r="L9">
-        <v>2140865.9018788398</v>
+        <v>2140866.0940054599</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
@@ -2746,19 +2747,19 @@
         <v>102</v>
       </c>
       <c r="H10">
-        <v>19.348644540227198</v>
+        <v>19.348645927112202</v>
       </c>
       <c r="I10">
-        <v>-155.275956935311</v>
+        <v>-155.27595902212099</v>
       </c>
       <c r="J10">
-        <v>1008.06255433429</v>
+        <v>1008.06172418594</v>
       </c>
       <c r="K10">
-        <v>260909.677596933</v>
+        <v>260909.46030797099</v>
       </c>
       <c r="L10">
-        <v>2140978.8274129899</v>
+        <v>2140978.9838576098</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
@@ -2784,19 +2785,19 @@
         <v>105</v>
       </c>
       <c r="H11">
-        <v>19.349557004426199</v>
+        <v>19.349558904500402</v>
       </c>
       <c r="I11">
-        <v>-155.27614191998799</v>
+        <v>-155.276144779925</v>
       </c>
       <c r="J11">
-        <v>1018.63046372589</v>
+        <v>1018.62930955272</v>
       </c>
       <c r="K11">
-        <v>260891.56730666899</v>
+        <v>260891.26951693301</v>
       </c>
       <c r="L11">
-        <v>2141080.1120304801</v>
+        <v>2141080.3263661601</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
@@ -2822,19 +2823,19 @@
         <v>108</v>
       </c>
       <c r="H12">
-        <v>19.3503524686022</v>
+        <v>19.3503543686667</v>
       </c>
       <c r="I12">
-        <v>-155.27668030661599</v>
+        <v>-155.27668316657201</v>
       </c>
       <c r="J12">
-        <v>1023.18505889736</v>
+        <v>1023.1839103112</v>
       </c>
       <c r="K12">
-        <v>260836.146659372</v>
+        <v>260835.848869857</v>
       </c>
       <c r="L12">
-        <v>2141168.93159207</v>
+        <v>2141169.1459278301</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
@@ -2860,19 +2861,19 @@
         <v>111</v>
       </c>
       <c r="H13">
-        <v>19.351165533023501</v>
+        <v>19.3511672173065</v>
       </c>
       <c r="I13">
-        <v>-155.27708933284501</v>
+        <v>-155.277091867613</v>
       </c>
       <c r="J13">
-        <v>1026.43521822616</v>
+        <v>1026.4341942695901</v>
       </c>
       <c r="K13">
-        <v>260794.347056172</v>
+        <v>260794.08312863801</v>
       </c>
       <c r="L13">
-        <v>2141259.52096922</v>
+        <v>2141259.7109641298</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
@@ -2898,19 +2899,19 @@
         <v>114</v>
       </c>
       <c r="H14">
-        <v>19.351317735574199</v>
+        <v>19.3513193390671</v>
       </c>
       <c r="I14">
-        <v>-155.27720957150299</v>
+        <v>-155.277211983558</v>
       </c>
       <c r="J14">
-        <v>1025.2211614809901</v>
+        <v>1025.2202566675801</v>
       </c>
       <c r="K14">
-        <v>260781.93295000799</v>
+        <v>260781.68180116499</v>
       </c>
       <c r="L14">
-        <v>2141276.5394445499</v>
+        <v>2141276.7203246299</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
@@ -2936,19 +2937,19 @@
         <v>117</v>
       </c>
       <c r="H15">
-        <v>19.351353105283899</v>
+        <v>19.351354369405499</v>
       </c>
       <c r="I15">
-        <v>-155.277662024259</v>
+        <v>-155.27766392577499</v>
       </c>
       <c r="J15">
-        <v>1023.84472454619</v>
+        <v>1023.8439723243901</v>
       </c>
       <c r="K15">
-        <v>260734.435281757</v>
+        <v>260734.23729188199</v>
       </c>
       <c r="L15">
-        <v>2141281.0822184002</v>
+        <v>2141281.2248166101</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
@@ -2974,19 +2975,19 @@
         <v>120</v>
       </c>
       <c r="H16">
-        <v>19.352032585129798</v>
+        <v>19.352033976734099</v>
       </c>
       <c r="I16">
-        <v>-155.27748122685</v>
+        <v>-155.27748331929499</v>
       </c>
       <c r="J16">
-        <v>1023.48034444172</v>
+        <v>1023.47954350896</v>
       </c>
       <c r="K16">
-        <v>260754.427152966</v>
+        <v>260754.20928471399</v>
       </c>
       <c r="L16">
-        <v>2141356.0643237801</v>
+        <v>2141356.2213012702</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
@@ -3012,19 +3013,19 @@
         <v>123</v>
       </c>
       <c r="H17">
-        <v>19.352235599451902</v>
+        <v>19.352237558943202</v>
       </c>
       <c r="I17">
-        <v>-155.277397884203</v>
+        <v>-155.277400833016</v>
       </c>
       <c r="J17">
-        <v>1019.59340494871</v>
+        <v>1019.59224049561</v>
       </c>
       <c r="K17">
-        <v>260763.482006473</v>
+        <v>260763.17497001801</v>
       </c>
       <c r="L17">
-        <v>2141378.4267926202</v>
+        <v>2141378.6478329301</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
@@ -3050,19 +3051,19 @@
         <v>126</v>
       </c>
       <c r="H18">
-        <v>19.353080114759099</v>
+        <v>19.353081273332101</v>
       </c>
       <c r="I18">
-        <v>-155.27770100468999</v>
+        <v>-155.277702749604</v>
       </c>
       <c r="J18">
-        <v>1020.8570956150101</v>
+        <v>1020.85642447602</v>
       </c>
       <c r="K18">
-        <v>260732.85902379299</v>
+        <v>260732.67733961201</v>
       </c>
       <c r="L18">
-        <v>2141472.3520091502</v>
+        <v>2141472.4827042799</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
@@ -3088,19 +3089,19 @@
         <v>129</v>
       </c>
       <c r="H19">
-        <v>19.3540684594178</v>
+        <v>19.354070063857201</v>
       </c>
       <c r="I19">
-        <v>-155.277927400615</v>
+        <v>-155.277929815709</v>
       </c>
       <c r="J19">
-        <v>1024.3342205788899</v>
+        <v>1024.3333277516101</v>
       </c>
       <c r="K19">
-        <v>260710.509382346</v>
+        <v>260710.25792072999</v>
       </c>
       <c r="L19">
-        <v>2141582.0959247998</v>
+        <v>2141582.2769154501</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
@@ -3126,19 +3127,19 @@
         <v>132</v>
       </c>
       <c r="H20">
-        <v>19.354883603831301</v>
+        <v>19.354885642031999</v>
       </c>
       <c r="I20">
-        <v>-155.27851209377701</v>
+        <v>-155.278515160648</v>
       </c>
       <c r="J20">
-        <v>1026.2755075683799</v>
+        <v>1026.2742868410401</v>
       </c>
       <c r="K20">
-        <v>260650.25379123099</v>
+        <v>260649.93446954599</v>
       </c>
       <c r="L20">
-        <v>2141673.15952437</v>
+        <v>2141673.38944571</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
@@ -3164,19 +3165,19 @@
         <v>135</v>
       </c>
       <c r="H21">
-        <v>19.3557067759189</v>
+        <v>19.355708814115498</v>
       </c>
       <c r="I21">
-        <v>-155.27871943317999</v>
+        <v>-155.27872250006899</v>
       </c>
       <c r="J21">
-        <v>1027.82341645099</v>
+        <v>1027.8222000645501</v>
       </c>
       <c r="K21">
-        <v>260629.66649154399</v>
+        <v>260629.347170016</v>
       </c>
       <c r="L21">
-        <v>2141764.5891824798</v>
+        <v>2141764.81910398</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
@@ -3202,19 +3203,19 @@
         <v>138</v>
       </c>
       <c r="H22">
-        <v>19.3525972116528</v>
+        <v>19.352598736414201</v>
       </c>
       <c r="I22">
-        <v>-155.277447925388</v>
+        <v>-155.27745021946899</v>
       </c>
       <c r="J22">
-        <v>1017.2954708403</v>
+        <v>1017.2946435362099</v>
       </c>
       <c r="K22">
-        <v>260758.75075431899</v>
+        <v>260758.51189101001</v>
       </c>
       <c r="L22">
-        <v>2141418.5340708401</v>
+        <v>2141418.7060708902</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
@@ -3240,19 +3241,19 @@
         <v>141</v>
       </c>
       <c r="H23">
-        <v>19.356582976696199</v>
+        <v>19.356585014882398</v>
       </c>
       <c r="I23">
-        <v>-155.279157472469</v>
+        <v>-155.279160539375</v>
       </c>
       <c r="J23">
-        <v>1037.33012019377</v>
+        <v>1037.3289095861801</v>
       </c>
       <c r="K23">
-        <v>260584.912890223</v>
+        <v>260584.59356921201</v>
       </c>
       <c r="L23">
-        <v>2141862.21007868</v>
+        <v>2141862.4400001098</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
@@ -3278,19 +3279,19 @@
         <v>144</v>
       </c>
       <c r="H24">
-        <v>19.357510100304999</v>
+        <v>19.357511899783201</v>
       </c>
       <c r="I24">
-        <v>-155.279525628805</v>
+        <v>-155.27952833746801</v>
       </c>
       <c r="J24">
-        <v>1044.7591237481699</v>
+        <v>1044.75801986177</v>
       </c>
       <c r="K24">
-        <v>260547.57810953201</v>
+        <v>260547.29608929899</v>
       </c>
       <c r="L24">
-        <v>2141965.3724698899</v>
+        <v>2141965.5754655502</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
@@ -3316,19 +3317,19 @@
         <v>147</v>
       </c>
       <c r="H25">
-        <v>19.358451562888298</v>
+        <v>19.3584531646603</v>
       </c>
       <c r="I25">
-        <v>-155.27965799371299</v>
+        <v>-155.27966040376199</v>
       </c>
       <c r="J25">
-        <v>1046.8828788846699</v>
+        <v>1046.88193330634</v>
       </c>
       <c r="K25">
-        <v>260535.043578604</v>
+        <v>260534.79265210699</v>
       </c>
       <c r="L25">
-        <v>2142069.79562733</v>
+        <v>2142069.97631907</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
@@ -3354,19 +3355,19 @@
         <v>150</v>
       </c>
       <c r="H26">
-        <v>19.3589560535288</v>
+        <v>19.358958292064401</v>
       </c>
       <c r="I26">
-        <v>-155.279772176059</v>
+        <v>-155.27977554463399</v>
       </c>
       <c r="J26">
-        <v>1048.81871378701</v>
+        <v>1048.81742840726</v>
       </c>
       <c r="K26">
-        <v>260523.78153558401</v>
+        <v>260523.430811397</v>
       </c>
       <c r="L26">
-        <v>2142125.81165232</v>
+        <v>2142126.0641766898</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
@@ -3392,19 +3393,19 @@
         <v>153</v>
       </c>
       <c r="H27">
-        <v>19.359512692108201</v>
+        <v>19.3595147293019</v>
       </c>
       <c r="I27">
-        <v>-155.27994644724001</v>
+        <v>-155.27994951334301</v>
       </c>
       <c r="J27">
-        <v>1042.5391321377799</v>
+        <v>1042.5379435587699</v>
       </c>
       <c r="K27">
-        <v>260506.281222855</v>
+        <v>260505.96199179601</v>
       </c>
       <c r="L27">
-        <v>2142187.6849040799</v>
+        <v>2142187.9147166898</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
@@ -3430,19 +3431,19 @@
         <v>156</v>
       </c>
       <c r="H28">
-        <v>19.360234521467198</v>
+        <v>19.3602362412528</v>
       </c>
       <c r="I28">
-        <v>-155.28033840158199</v>
+        <v>-155.280340989309</v>
       </c>
       <c r="J28">
-        <v>1032.13346744515</v>
+        <v>1032.1324471496</v>
       </c>
       <c r="K28">
-        <v>260466.14687324001</v>
+        <v>260465.87745129701</v>
       </c>
       <c r="L28">
-        <v>2142268.1502381102</v>
+        <v>2142268.3442442799</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
@@ -3468,19 +3469,19 @@
         <v>159</v>
       </c>
       <c r="H29">
-        <v>19.361222982865701</v>
+        <v>19.3612245846296</v>
       </c>
       <c r="I29">
-        <v>-155.28048349480301</v>
+        <v>-155.28048590490499</v>
       </c>
       <c r="J29">
-        <v>1035.3055177684901</v>
+        <v>1035.3045842107399</v>
       </c>
       <c r="K29">
-        <v>260452.344378826</v>
+        <v>260452.09345207</v>
       </c>
       <c r="L29">
-        <v>2142377.79497102</v>
+        <v>2142377.9756636801</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
@@ -3506,19 +3507,19 @@
         <v>162</v>
       </c>
       <c r="H30">
-        <v>19.362175380166502</v>
+        <v>19.362177456785801</v>
       </c>
       <c r="I30">
-        <v>-155.28074135000301</v>
+        <v>-155.280744474541</v>
       </c>
       <c r="J30">
-        <v>1037.2985332785199</v>
+        <v>1037.2973010651799</v>
       </c>
       <c r="K30">
-        <v>260426.63976957701</v>
+        <v>260426.314462098</v>
       </c>
       <c r="L30">
-        <v>2142483.6031539398</v>
+        <v>2142483.837415</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
@@ -3544,19 +3545,19 @@
         <v>165</v>
       </c>
       <c r="H31">
-        <v>19.362700625176501</v>
+        <v>19.362702425609999</v>
       </c>
       <c r="I31">
-        <v>-155.281105430884</v>
+        <v>-155.281108140518</v>
       </c>
       <c r="J31">
-        <v>1039.4406696250701</v>
+        <v>1039.4395848931699</v>
       </c>
       <c r="K31">
-        <v>260389.14820122099</v>
+        <v>260388.866091743</v>
       </c>
       <c r="L31">
-        <v>2142542.2640805901</v>
+        <v>2142542.4671870801</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
@@ -3582,19 +3583,19 @@
         <v>168</v>
       </c>
       <c r="H32">
-        <v>19.363284693903601</v>
+        <v>19.3632867387097</v>
       </c>
       <c r="I32">
-        <v>-155.280863367129</v>
+        <v>-155.280866445745</v>
       </c>
       <c r="J32">
-        <v>1045.5138848889601</v>
+        <v>1045.51272549294</v>
       </c>
       <c r="K32">
-        <v>260415.439502127</v>
+        <v>260415.11897634499</v>
       </c>
       <c r="L32">
-        <v>2142606.5968589601</v>
+        <v>2142606.8275343799</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
@@ -3620,19 +3621,19 @@
         <v>171</v>
       </c>
       <c r="H33">
-        <v>19.363818160968101</v>
+        <v>19.363819960419299</v>
       </c>
       <c r="I33">
-        <v>-155.28121428444399</v>
+        <v>-155.28121699322801</v>
       </c>
       <c r="J33">
-        <v>1050.9505371591099</v>
+        <v>1050.94946312159</v>
       </c>
       <c r="K33">
-        <v>260379.343584644</v>
+        <v>260379.06156521701</v>
       </c>
       <c r="L33">
-        <v>2142666.1499309</v>
+        <v>2142666.3529278599</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
@@ -3658,19 +3659,19 @@
         <v>174</v>
       </c>
       <c r="H34">
-        <v>19.3645095526192</v>
+        <v>19.364511074664598</v>
       </c>
       <c r="I34">
-        <v>-155.28121904361899</v>
+        <v>-155.28122133489799</v>
       </c>
       <c r="J34">
-        <v>1050.58312262595</v>
+        <v>1050.58227857016</v>
       </c>
       <c r="K34">
-        <v>260379.85460363401</v>
+        <v>260379.61605279401</v>
       </c>
       <c r="L34">
-        <v>2142742.7081762701</v>
+        <v>2142742.8798791701</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
@@ -3696,19 +3697,19 @@
         <v>177</v>
       </c>
       <c r="H35">
-        <v>19.365526169249701</v>
+        <v>19.365527968694799</v>
       </c>
       <c r="I35">
-        <v>-155.28174989216899</v>
+        <v>-155.28175260098999</v>
       </c>
       <c r="J35">
-        <v>1044.56016994175</v>
+        <v>1044.55910435226</v>
       </c>
       <c r="K35">
-        <v>260325.55808011899</v>
+        <v>260325.27606053901</v>
       </c>
       <c r="L35">
-        <v>2142856.0060416702</v>
+        <v>2142856.2090392401</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
@@ -3734,19 +3735,19 @@
         <v>180</v>
       </c>
       <c r="H36">
-        <v>19.366477887310399</v>
+        <v>19.366479924469399</v>
       </c>
       <c r="I36">
-        <v>-155.281927004995</v>
+        <v>-155.28193007125199</v>
       </c>
       <c r="J36">
-        <v>1046.0394458984999</v>
+        <v>1046.0382952448001</v>
       </c>
       <c r="K36">
-        <v>260308.338877495</v>
+        <v>260308.01964725499</v>
       </c>
       <c r="L36">
-        <v>2142961.6272801599</v>
+        <v>2142961.85709451</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
@@ -3772,19 +3773,19 @@
         <v>183</v>
       </c>
       <c r="H37">
-        <v>19.3673541838827</v>
+        <v>19.367355499859698</v>
       </c>
       <c r="I37">
-        <v>-155.28231121330501</v>
+        <v>-155.28231319441801</v>
       </c>
       <c r="J37">
-        <v>1048.2100720265901</v>
+        <v>1048.2093081390501</v>
       </c>
       <c r="K37">
-        <v>260269.247539028</v>
+        <v>260269.04128505301</v>
       </c>
       <c r="L37">
-        <v>2143059.1854261402</v>
+        <v>2143059.3338841801</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
@@ -3810,19 +3811,19 @@
         <v>186</v>
       </c>
       <c r="H38">
-        <v>19.3683206021697</v>
+        <v>19.3683219181437</v>
       </c>
       <c r="I38">
-        <v>-155.282495244031</v>
+        <v>-155.282497225155</v>
       </c>
       <c r="J38">
-        <v>1053.17074314039</v>
+        <v>1053.1699823392601</v>
       </c>
       <c r="K38">
-        <v>260251.32357949999</v>
+        <v>260251.117325753</v>
       </c>
       <c r="L38">
-        <v>2143166.4440310202</v>
+        <v>2143166.5924891098</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
@@ -3848,19 +3849,19 @@
         <v>189</v>
       </c>
       <c r="H39">
-        <v>19.369052743749599</v>
+        <v>19.369054543047</v>
       </c>
       <c r="I39">
-        <v>-155.28306902174899</v>
+        <v>-155.28307172977301</v>
       </c>
       <c r="J39">
-        <v>1053.9924851497599</v>
+        <v>1053.9914774522199</v>
       </c>
       <c r="K39">
-        <v>260192.10191673</v>
+        <v>260191.819988456</v>
       </c>
       <c r="L39">
-        <v>2143248.3047621502</v>
+        <v>2143248.5077452301</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
@@ -3886,19 +3887,19 @@
         <v>192</v>
       </c>
       <c r="H40">
-        <v>19.369876874642902</v>
+        <v>19.369878672964301</v>
       </c>
       <c r="I40">
-        <v>-155.282929130697</v>
+        <v>-155.282931837869</v>
       </c>
       <c r="J40">
-        <v>1056.44328140933</v>
+        <v>1056.44228220079</v>
       </c>
       <c r="K40">
-        <v>260208.00831782201</v>
+        <v>260207.72647920801</v>
       </c>
       <c r="L40">
-        <v>2143339.35920269</v>
+        <v>2143339.5620764298</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
@@ -3924,19 +3925,19 @@
         <v>195</v>
       </c>
       <c r="H41">
-        <v>19.370410176025899</v>
+        <v>19.3704119746094</v>
       </c>
       <c r="I41">
-        <v>-155.283602038444</v>
+        <v>-155.28360474523399</v>
       </c>
       <c r="J41">
-        <v>1056.37552872673</v>
+        <v>1056.3744488284001</v>
       </c>
       <c r="K41">
-        <v>260138.07970459899</v>
+        <v>260137.79790813799</v>
       </c>
       <c r="L41">
-        <v>2143399.3420978901</v>
+        <v>2143399.5450014002</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
@@ -3962,19 +3963,19 @@
         <v>198</v>
       </c>
       <c r="H42">
-        <v>19.371343281613601</v>
+        <v>19.371345080067702</v>
       </c>
       <c r="I42">
-        <v>-155.283859807889</v>
+        <v>-155.28386251383199</v>
       </c>
       <c r="J42">
-        <v>1057.53867611289</v>
+        <v>1057.5376401087301</v>
       </c>
       <c r="K42">
-        <v>260112.35987212</v>
+        <v>260112.07816644799</v>
       </c>
       <c r="L42">
-        <v>2143503.0150602399</v>
+        <v>2143503.2179488698</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
@@ -4000,19 +4001,19 @@
         <v>201</v>
       </c>
       <c r="H43">
-        <v>19.372341167994101</v>
+        <v>19.3723436802285</v>
       </c>
       <c r="I43">
-        <v>-155.284140664246</v>
+        <v>-155.284144444709</v>
       </c>
       <c r="J43">
-        <v>1057.55735406745</v>
+        <v>1057.55586339254</v>
       </c>
       <c r="K43">
-        <v>260084.30935427701</v>
+        <v>260083.91578681301</v>
       </c>
       <c r="L43">
-        <v>2143613.89281529</v>
+        <v>2143614.1762291999</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.35">
@@ -4038,19 +4039,19 @@
         <v>204</v>
       </c>
       <c r="H44">
-        <v>19.372889749803701</v>
+        <v>19.372891560740701</v>
       </c>
       <c r="I44">
-        <v>-155.284583556775</v>
+        <v>-155.28458628163401</v>
       </c>
       <c r="J44">
-        <v>1057.8816129909801</v>
+        <v>1057.88057088852</v>
       </c>
       <c r="K44">
-        <v>260038.57438941501</v>
+        <v>260038.290717984</v>
       </c>
       <c r="L44">
-        <v>2143675.2483584699</v>
+        <v>2143675.4526570798</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
@@ -4076,19 +4077,19 @@
         <v>207</v>
       </c>
       <c r="H45">
-        <v>19.3738884607207</v>
+        <v>19.373890271682299</v>
       </c>
       <c r="I45">
-        <v>-155.282833099019</v>
+        <v>-155.282835823873</v>
       </c>
       <c r="J45">
-        <v>1062.8456982048201</v>
+        <v>1062.8446513460999</v>
       </c>
       <c r="K45">
-        <v>260223.97259719201</v>
+        <v>260223.68892645801</v>
       </c>
       <c r="L45">
-        <v>2143783.3936848999</v>
+        <v>2143783.5979833198</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
@@ -4114,19 +4115,19 @@
         <v>210</v>
       </c>
       <c r="H46">
-        <v>19.375255810855698</v>
+        <v>19.375257241094001</v>
       </c>
       <c r="I46">
-        <v>-155.28319544569101</v>
+        <v>-155.28319759771</v>
       </c>
       <c r="J46">
-        <v>1065.14607295208</v>
+        <v>1065.14522544388</v>
       </c>
       <c r="K46">
-        <v>260187.90037752199</v>
+        <v>260187.67634403799</v>
       </c>
       <c r="L46">
-        <v>2143935.2920457302</v>
+        <v>2143935.4533946798</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
@@ -4608,19 +4609,19 @@
         <v>213</v>
       </c>
       <c r="H59">
-        <v>19.329647172875799</v>
+        <v>19.329648804940799</v>
       </c>
       <c r="I59">
-        <v>-155.279981266916</v>
+        <v>-155.27998372458001</v>
       </c>
       <c r="J59">
-        <v>928.59423428308196</v>
+        <v>928.59331563860201</v>
       </c>
       <c r="K59">
-        <v>260459.01121720701</v>
+        <v>260458.75528266499</v>
       </c>
       <c r="L59">
-        <v>2138880.9984568902</v>
+        <v>2138881.18256449</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.35">
@@ -4646,19 +4647,19 @@
         <v>216</v>
       </c>
       <c r="H60">
-        <v>19.328787185232201</v>
+        <v>19.328788548758101</v>
       </c>
       <c r="I60">
-        <v>-155.28038420382299</v>
+        <v>-155.28038625694401</v>
       </c>
       <c r="J60">
-        <v>923.63582746032603</v>
+        <v>923.63507200218703</v>
       </c>
       <c r="K60">
-        <v>260415.404948579</v>
+        <v>260415.19114125901</v>
       </c>
       <c r="L60">
-        <v>2138786.3382190201</v>
+        <v>2138786.4920338499</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.35">
@@ -4760,19 +4761,19 @@
         <v>219</v>
       </c>
       <c r="H63">
-        <v>19.3261236778797</v>
+        <v>19.326125041282701</v>
       </c>
       <c r="I63">
-        <v>-155.28038102860501</v>
+        <v>-155.280383080831</v>
       </c>
       <c r="J63">
-        <v>914.60176598001306</v>
+        <v>914.60104295145698</v>
       </c>
       <c r="K63">
-        <v>260411.85195328001</v>
+        <v>260411.638236053</v>
       </c>
       <c r="L63">
-        <v>2138491.42850678</v>
+        <v>2138491.5823063799</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.35">
@@ -4798,19 +4799,19 @@
         <v>222</v>
       </c>
       <c r="H64">
-        <v>19.325392854300201</v>
+        <v>19.3253933011245</v>
       </c>
       <c r="I64">
-        <v>-155.28039633907699</v>
+        <v>-155.280397012138</v>
       </c>
       <c r="J64">
-        <v>910.34096271265298</v>
+        <v>910.34071670938295</v>
       </c>
       <c r="K64">
-        <v>260409.17631721901</v>
+        <v>260409.106224341</v>
       </c>
       <c r="L64">
-        <v>2138410.5324518899</v>
+        <v>2138410.5828568698</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.35">
@@ -4891,5 +4892,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>